--- a/natmiOut/OldD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -525,34 +525,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.01915999871959</v>
+        <v>2.089056333333333</v>
       </c>
       <c r="H2">
-        <v>2.01915999871959</v>
+        <v>6.267169</v>
       </c>
       <c r="I2">
-        <v>0.725354599622266</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="J2">
-        <v>0.725354599622266</v>
+        <v>0.719660391922429</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.30034845869875</v>
+        <v>3.332796666666667</v>
       </c>
       <c r="N2">
-        <v>3.30034845869875</v>
+        <v>9.998390000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>6.663931589640368</v>
+        <v>6.962399984212222</v>
       </c>
       <c r="R2">
-        <v>6.663931589640368</v>
+        <v>62.66159985791001</v>
       </c>
       <c r="S2">
-        <v>0.725354599622266</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="T2">
-        <v>0.725354599622266</v>
+        <v>0.719660391922429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,34 +587,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.764526766031172</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H3">
-        <v>0.764526766031172</v>
+        <v>2.44134</v>
       </c>
       <c r="I3">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J3">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.30034845869875</v>
+        <v>3.332796666666667</v>
       </c>
       <c r="N3">
-        <v>3.30034845869875</v>
+        <v>9.998390000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.523204733904918</v>
+        <v>2.7121632714</v>
       </c>
       <c r="R3">
-        <v>2.523204733904918</v>
+        <v>24.4094694426</v>
       </c>
       <c r="S3">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="T3">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
     </row>
   </sheetData>
